--- a/biology/Virologie/Avsunviroidae/Avsunviroidae.xlsx
+++ b/biology/Virologie/Avsunviroidae/Avsunviroidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Avsunviroidae sont une famille de viroïdes[1], regroupant trois genres et cinq espèces. Ce sont des agents sous-viraux qui infectent uniquement les plantes. Comme tous les viroïdes, ils nécessitent l'aide d'un virus (dénommé « virus aidant ») pour pouvoir infecter les plantes[réf. à confirmer][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Avsunviroidae sont une famille de viroïdes, regroupant trois genres et cinq espèces. Ce sont des agents sous-viraux qui infectent uniquement les plantes. Comme tous les viroïdes, ils nécessitent l'aide d'un virus (dénommé « virus aidant ») pour pouvoir infecter les plantes[réf. à confirmer].
 Le génome de ces viroïdes est constitué d'ARN, d'une longueur de 246 à 375 nucléotides. Cet ARN est circulaire à simple brin.
 Les cercles qu'ils forment sont covalents, avec un appariement des bases intramoléculaire. Tous les membres de ce groupe n'ont pas de région centrale conservée.
 </t>
@@ -513,7 +525,9 @@
           <t>Réplication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réplication se produit dans les chloroplastes des cellules végétales infectées. 
 Les prédictions de la structure ont suggéré qu'ils existent soit sous forme de molécules en forme de bâtonnet avec des régions d'appariement de bases causant la formation des boucles en épingles à cheveux, soit sous forme de configurations ramifiées.
@@ -549,7 +563,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure définitive est inconnue, mais des études réalisées à l'aide de prédictions bioinformatiques de la structure  suggèrent qu'elles existent soit sous forme de bâtonnet, dont des régions d'appariement des bases azotées causent la formation de boucles, soit sous forme de configurations ramifiées.
 </t>
@@ -580,9 +596,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (24 janvier 2021)[3], la famille comprend trois genres, pour un total de quatre espèces :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 janvier 2021), la famille comprend trois genres, pour un total de quatre espèces :
 genre Avsunviroid :
 Avocado sunblotch viroid (espèce-type)
 genre Elaviroid :
